--- a/teaching/traditional_assets/database/data/austria/austria_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/austria/austria_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,112 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.04480000000000001</v>
+        <v>0.0351</v>
       </c>
       <c r="E2">
-        <v>-0.0665</v>
+        <v>-0.353</v>
       </c>
       <c r="G2">
-        <v>-0.006633165829145729</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01260050251256281</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.01779166590323645</v>
+        <v>0.01020886293241032</v>
       </c>
       <c r="J2">
-        <v>-0.0162017723544366</v>
+        <v>0.006532500527769016</v>
       </c>
       <c r="K2">
-        <v>-0.03499999999999992</v>
+        <v>0.338</v>
       </c>
       <c r="L2">
-        <v>-0.0001099246231155776</v>
+        <v>0.01769633507853403</v>
       </c>
       <c r="M2">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0991825613079019</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-520.0000000000011</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0991825613079019</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-520.0000000000011</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>38.615</v>
+        <v>0.083</v>
       </c>
       <c r="V2">
-        <v>0.2104359673024523</v>
+        <v>0.002561728395061729</v>
       </c>
       <c r="W2">
-        <v>0.004460822342901473</v>
+        <v>0.006787148594377511</v>
       </c>
       <c r="X2">
-        <v>0.07933244204907181</v>
+        <v>0.07979111419601945</v>
       </c>
       <c r="Y2">
-        <v>-0.07487161970617033</v>
+        <v>-0.07300396560164193</v>
       </c>
       <c r="Z2">
-        <v>1.279360540279004</v>
+        <v>0.1709094970334014</v>
       </c>
       <c r="AA2">
-        <v>-0.03394199122548482</v>
+        <v>0.001116466379571432</v>
       </c>
       <c r="AB2">
-        <v>0.050682262610992</v>
+        <v>0.03783753091140812</v>
       </c>
       <c r="AC2">
-        <v>-0.08203791148534595</v>
+        <v>-0.03672106453183668</v>
       </c>
       <c r="AD2">
-        <v>224.49</v>
+        <v>62.3</v>
       </c>
       <c r="AE2">
-        <v>3.454332117952434</v>
+        <v>3.030053589954814</v>
       </c>
       <c r="AF2">
-        <v>227.9443321179524</v>
+        <v>65.33005358995482</v>
       </c>
       <c r="AG2">
-        <v>189.3293321179524</v>
+        <v>65.24705358995482</v>
       </c>
       <c r="AH2">
-        <v>0.5540101401921989</v>
+        <v>0.6684745499481621</v>
       </c>
       <c r="AI2">
-        <v>0.4381823026922962</v>
+        <v>0.5649919857481608</v>
       </c>
       <c r="AJ2">
-        <v>0.5078176951432944</v>
+        <v>0.6681927533005146</v>
       </c>
       <c r="AK2">
-        <v>0.3931343979014496</v>
+        <v>0.5646795098860671</v>
       </c>
       <c r="AL2">
-        <v>3.464</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.486</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>13.31731624844278</v>
-      </c>
-      <c r="AO2">
-        <v>-1.755196304849885</v>
+        <v>77.77777777777777</v>
       </c>
       <c r="AP2">
-        <v>11.23149624001616</v>
-      </c>
-      <c r="AQ2">
-        <v>-2.445695897023331</v>
+        <v>81.45699574276506</v>
       </c>
     </row>
     <row r="3">
@@ -725,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.04480000000000001</v>
+        <v>0.0351</v>
       </c>
       <c r="E3">
-        <v>-0.0665</v>
+        <v>-0.353</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,91 +728,88 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01089601656748413</v>
+        <v>0.01020886293241032</v>
       </c>
       <c r="J3">
-        <v>0.007974956806839446</v>
+        <v>0.006532500527769016</v>
       </c>
       <c r="K3">
-        <v>1.56</v>
+        <v>0.338</v>
       </c>
       <c r="L3">
-        <v>0.07647058823529412</v>
+        <v>0.01769633507853403</v>
       </c>
       <c r="M3">
-        <v>18.2</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.456140350877193</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>11.66666666666667</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>18.2</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.456140350877193</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>11.66666666666667</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>0.105</v>
+        <v>0.083</v>
       </c>
       <c r="V3">
-        <v>0.002631578947368421</v>
+        <v>0.002561728395061729</v>
       </c>
       <c r="W3">
-        <v>0.03070866141732284</v>
+        <v>0.006787148594377511</v>
       </c>
       <c r="X3">
-        <v>0.085999026639322</v>
+        <v>0.07979111419601945</v>
       </c>
       <c r="Y3">
-        <v>-0.05529036522199916</v>
+        <v>-0.07300396560164193</v>
       </c>
       <c r="Z3">
-        <v>0.1688761205375889</v>
+        <v>0.1709094970334014</v>
       </c>
       <c r="AA3">
-        <v>0.001346779766993883</v>
+        <v>0.001116466379571432</v>
       </c>
       <c r="AB3">
-        <v>0.050682262610992</v>
+        <v>0.03783753091140812</v>
       </c>
       <c r="AC3">
-        <v>-0.04933548284399811</v>
+        <v>-0.03672106453183668</v>
       </c>
       <c r="AD3">
-        <v>59.5</v>
+        <v>62.3</v>
       </c>
       <c r="AE3">
-        <v>3.008606310116619</v>
+        <v>3.030053589954814</v>
       </c>
       <c r="AF3">
-        <v>62.50860631011662</v>
+        <v>65.33005358995482</v>
       </c>
       <c r="AG3">
-        <v>62.40360631011662</v>
+        <v>65.24705358995482</v>
       </c>
       <c r="AH3">
-        <v>0.6103843081393598</v>
+        <v>0.6684745499481621</v>
       </c>
       <c r="AI3">
-        <v>0.5550961721164728</v>
+        <v>0.5649919857481608</v>
       </c>
       <c r="AJ3">
-        <v>0.6099844234322523</v>
+        <v>0.6681927533005146</v>
       </c>
       <c r="AK3">
-        <v>0.5546809418544402</v>
+        <v>0.5646795098860671</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -830,245 +818,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>72.20873786407768</v>
+        <v>77.77777777777777</v>
       </c>
       <c r="AP3">
-        <v>75.73253192975319</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Unternehmens Invest AG (WBAG:UIV)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>-0.003938356164383561</v>
-      </c>
-      <c r="H4">
-        <v>-0.01044520547945205</v>
-      </c>
-      <c r="I4">
-        <v>-0.01488748343002453</v>
-      </c>
-      <c r="J4">
-        <v>-0.01488748343002453</v>
-      </c>
-      <c r="K4">
-        <v>0.575</v>
-      </c>
-      <c r="L4">
-        <v>0.001969178082191781</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>-0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>-0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>37.4</v>
-      </c>
-      <c r="V4">
-        <v>0.2975338106603023</v>
-      </c>
-      <c r="W4">
-        <v>0.004460822342901473</v>
-      </c>
-      <c r="X4">
-        <v>0.07933244204907181</v>
-      </c>
-      <c r="Y4">
-        <v>-0.07487161970617033</v>
-      </c>
-      <c r="Z4">
-        <v>2.279901192503218</v>
-      </c>
-      <c r="AA4">
-        <v>-0.03394199122548482</v>
-      </c>
-      <c r="AB4">
-        <v>0.04809592025986113</v>
-      </c>
-      <c r="AC4">
-        <v>-0.08203791148534595</v>
-      </c>
-      <c r="AD4">
-        <v>160.1</v>
-      </c>
-      <c r="AE4">
-        <v>0.4457258078358147</v>
-      </c>
-      <c r="AF4">
-        <v>160.5457258078358</v>
-      </c>
-      <c r="AG4">
-        <v>123.1457258078358</v>
-      </c>
-      <c r="AH4">
-        <v>0.5608668054509723</v>
-      </c>
-      <c r="AI4">
-        <v>0.4056789886488699</v>
-      </c>
-      <c r="AJ4">
-        <v>0.4948677555463889</v>
-      </c>
-      <c r="AK4">
-        <v>0.3436506059343182</v>
-      </c>
-      <c r="AL4">
-        <v>3.25</v>
-      </c>
-      <c r="AM4">
-        <v>2.282</v>
-      </c>
-      <c r="AN4">
-        <v>9.5971706030452</v>
-      </c>
-      <c r="AO4">
-        <v>-1.396923076923077</v>
-      </c>
-      <c r="AP4">
-        <v>7.381952152489859</v>
-      </c>
-      <c r="AQ4">
-        <v>-1.989482909728308</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>startup300 AG (WBAG:S300)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G5">
-        <v>-0.1603333333333333</v>
-      </c>
-      <c r="H5">
-        <v>-0.1603333333333333</v>
-      </c>
-      <c r="I5">
-        <v>-0.2566666666666667</v>
-      </c>
-      <c r="J5">
-        <v>-0.2566666666666667</v>
-      </c>
-      <c r="K5">
-        <v>-2.17</v>
-      </c>
-      <c r="L5">
-        <v>-0.3616666666666666</v>
-      </c>
-      <c r="M5">
-        <v>-0</v>
-      </c>
-      <c r="N5">
-        <v>-0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>-0</v>
-      </c>
-      <c r="Q5">
-        <v>-0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>1.11</v>
-      </c>
-      <c r="V5">
-        <v>0.06201117318435755</v>
-      </c>
-      <c r="X5">
-        <v>0.05620521055360227</v>
-      </c>
-      <c r="AB5">
-        <v>0.05079465495033165</v>
-      </c>
-      <c r="AD5">
-        <v>4.89</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>4.89</v>
-      </c>
-      <c r="AG5">
-        <v>3.779999999999999</v>
-      </c>
-      <c r="AH5">
-        <v>0.2145677928916191</v>
-      </c>
-      <c r="AI5">
-        <v>0.4126582278481012</v>
-      </c>
-      <c r="AJ5">
-        <v>0.1743542435424354</v>
-      </c>
-      <c r="AK5">
-        <v>0.3519553072625698</v>
-      </c>
-      <c r="AL5">
-        <v>0.214</v>
-      </c>
-      <c r="AM5">
-        <v>0.204</v>
-      </c>
-      <c r="AN5">
-        <v>-7.534668721109398</v>
-      </c>
-      <c r="AO5">
-        <v>-7.196261682242991</v>
-      </c>
-      <c r="AP5">
-        <v>-5.824345146379043</v>
-      </c>
-      <c r="AQ5">
-        <v>-7.549019607843138</v>
+        <v>81.45699574276506</v>
       </c>
     </row>
   </sheetData>
